--- a/occupations/occupations_hu.xlsx
+++ b/occupations/occupations_hu.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA45"/>
+  <dimension ref="A1:Z45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -482,49 +482,46 @@
         <v>8</v>
       </c>
       <c r="N1" s="1" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O1" s="1" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="P1" s="1" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Q1" s="1" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="R1" s="1" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="S1" s="1" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="T1" s="1" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="U1" s="1" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="V1" s="1" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="W1" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="X1" s="1" t="n">
         <v>19</v>
       </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>hu_mean</t>
+        </is>
+      </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
-          <t>hu_mean</t>
+          <t>hu_p_value</t>
         </is>
       </c>
       <c r="Z1" s="1" t="inlineStr">
-        <is>
-          <t>hu_p_value</t>
-        </is>
-      </c>
-      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>hu_significant</t>
         </is>
@@ -577,45 +574,42 @@
         <v>3</v>
       </c>
       <c r="N2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q2" t="n">
         <v>1</v>
       </c>
       <c r="R2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T2" t="n">
         <v>3</v>
       </c>
       <c r="U2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V2" t="n">
         <v>1</v>
       </c>
       <c r="W2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X2" t="n">
-        <v>2</v>
+        <v>2.210526315789474</v>
       </c>
       <c r="Y2" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>3.420202778269096e-10</v>
-      </c>
-      <c r="AA2" t="b">
+        <v>1.37705126949289e-09</v>
+      </c>
+      <c r="Z2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -675,36 +669,33 @@
         <v>2</v>
       </c>
       <c r="Q3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S3" t="n">
         <v>2</v>
       </c>
       <c r="T3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U3" t="n">
+        <v>2</v>
+      </c>
+      <c r="V3" t="n">
         <v>3</v>
       </c>
-      <c r="V3" t="n">
-        <v>2</v>
-      </c>
       <c r="W3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X3" t="n">
-        <v>2</v>
+        <v>2.210526315789474</v>
       </c>
       <c r="Y3" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>9.714923416994703e-14</v>
-      </c>
-      <c r="AA3" t="b">
+        <v>5.888900002368647e-13</v>
+      </c>
+      <c r="Z3" t="b">
         <v>1</v>
       </c>
     </row>
@@ -755,16 +746,16 @@
         <v>2</v>
       </c>
       <c r="N4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R4" t="n">
         <v>2</v>
@@ -773,27 +764,24 @@
         <v>2</v>
       </c>
       <c r="T4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U4" t="n">
+        <v>2</v>
+      </c>
+      <c r="V4" t="n">
         <v>3</v>
       </c>
-      <c r="V4" t="n">
-        <v>2</v>
-      </c>
       <c r="W4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X4" t="n">
-        <v>2</v>
+        <v>1.789473684210526</v>
       </c>
       <c r="Y4" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>7.226335661152214e-08</v>
-      </c>
-      <c r="AA4" t="b">
+        <v>2.498062173720721e-07</v>
+      </c>
+      <c r="Z4" t="b">
         <v>1</v>
       </c>
     </row>
@@ -847,42 +835,39 @@
         <v>1</v>
       </c>
       <c r="O5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P5" t="n">
         <v>2</v>
       </c>
       <c r="Q5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V5" t="n">
         <v>1</v>
       </c>
       <c r="W5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X5" t="n">
-        <v>2</v>
+        <v>1.421052631578947</v>
       </c>
       <c r="Y5" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>3.373972992204083e-07</v>
-      </c>
-      <c r="AA5" t="b">
+        <v>7.381720259714105e-07</v>
+      </c>
+      <c r="Z5" t="b">
         <v>1</v>
       </c>
     </row>
@@ -933,19 +918,19 @@
         <v>2</v>
       </c>
       <c r="N6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S6" t="n">
         <v>2</v>
@@ -954,24 +939,21 @@
         <v>2</v>
       </c>
       <c r="U6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X6" t="n">
-        <v>1</v>
+        <v>1.157894736842105</v>
       </c>
       <c r="Y6" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>8.985999602059502e-05</v>
-      </c>
-      <c r="AA6" t="b">
+        <v>0.0001684414175533629</v>
+      </c>
+      <c r="Z6" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1022,69 +1004,66 @@
         <v>1</v>
       </c>
       <c r="N7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X7" t="n">
-        <v>2</v>
+        <v>1.052631578947368</v>
       </c>
       <c r="Y7" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>3.318807025446645e-05</v>
-      </c>
-      <c r="AA7" t="b">
+        <v>8.605732972774042e-05</v>
+      </c>
+      <c r="Z7" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>gondozó</t>
+          <t>pénztáros</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>caretaker</t>
+          <t>cashier</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>护工</t>
+          <t>收银员</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8" t="n">
         <v>2</v>
@@ -1093,7 +1072,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1102,7 +1081,7 @@
         <v>2</v>
       </c>
       <c r="K8" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="L8" t="n">
         <v>2</v>
@@ -1111,69 +1090,66 @@
         <v>2</v>
       </c>
       <c r="N8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O8" t="n">
         <v>1</v>
       </c>
       <c r="P8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S8" t="n">
         <v>2</v>
       </c>
       <c r="T8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X8" t="n">
-        <v>1</v>
+        <v>1.052631578947368</v>
       </c>
       <c r="Y8" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>0.00019877661617639</v>
-      </c>
-      <c r="AA8" t="b">
+        <v>1.431979035920437e-05</v>
+      </c>
+      <c r="Z8" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>bolti eladó</t>
+          <t>gondozó</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>shop assistant</t>
+          <t>caretaker</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>导购员</t>
+          <t>护工</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>2</v>
@@ -1182,16 +1158,16 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K9" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="L9" t="n">
         <v>2</v>
@@ -1200,65 +1176,62 @@
         <v>2</v>
       </c>
       <c r="N9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S9" t="n">
         <v>1</v>
       </c>
       <c r="T9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X9" t="n">
-        <v>1</v>
+        <v>1.052631578947368</v>
       </c>
       <c r="Y9" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>1.752415793828131e-05</v>
-      </c>
-      <c r="AA9" t="b">
+        <v>0.0004781616867116871</v>
+      </c>
+      <c r="Z9" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pénztáros</t>
+          <t>bolti eladó</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>cashier</t>
+          <t>shop assistant</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>收银员</t>
+          <t>导购员</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -1277,7 +1250,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K10" t="n">
         <v>1</v>
@@ -1292,28 +1265,28 @@
         <v>1</v>
       </c>
       <c r="O10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
         <v>1</v>
       </c>
       <c r="Q10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W10" t="n">
         <v>1</v>
@@ -1322,32 +1295,29 @@
         <v>1</v>
       </c>
       <c r="Y10" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>6.069924322914056e-06</v>
-      </c>
-      <c r="AA10" t="b">
+        <v>4.488486155712744e-05</v>
+      </c>
+      <c r="Z10" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>HR-es</t>
+          <t>fodrász</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>HR specialist</t>
+          <t>hairdresser</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>人力資源</t>
+          <t>理发师</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -1360,7 +1330,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1372,71 +1342,68 @@
         <v>1</v>
       </c>
       <c r="L11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M11" t="n">
         <v>2</v>
       </c>
       <c r="N11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q11" t="n">
         <v>2</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S11" t="n">
         <v>2</v>
       </c>
       <c r="T11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X11" t="n">
         <v>1</v>
       </c>
       <c r="Y11" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z11" t="n">
-        <v>4.985655172343967e-05</v>
-      </c>
-      <c r="AA11" t="b">
+        <v>4.488486155712744e-05</v>
+      </c>
+      <c r="Z11" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>fodrász</t>
+          <t>HR-es</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>hairdresser</t>
+          <t>HR specialist</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>理发师</t>
+          <t>人力資源</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -1449,7 +1416,7 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1461,51 +1428,48 @@
         <v>1</v>
       </c>
       <c r="L12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M12" t="n">
         <v>2</v>
       </c>
       <c r="N12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P12" t="n">
         <v>2</v>
       </c>
       <c r="Q12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>2</v>
       </c>
       <c r="S12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W12" t="n">
         <v>1</v>
       </c>
       <c r="X12" t="n">
-        <v>1</v>
+        <v>0.9473684210526315</v>
       </c>
       <c r="Y12" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z12" t="n">
-        <v>1.997624965504301e-05</v>
-      </c>
-      <c r="AA12" t="b">
+        <v>0.0001233705049685979</v>
+      </c>
+      <c r="Z12" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1556,45 +1520,42 @@
         <v>2</v>
       </c>
       <c r="N13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P13" t="n">
         <v>1</v>
       </c>
       <c r="Q13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="Y13" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="Z13" t="n">
-        <v>0.0003931739318516951</v>
-      </c>
-      <c r="AA13" t="b">
+        <v>0.00086553568174888</v>
+      </c>
+      <c r="Z13" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1645,45 +1606,42 @@
         <v>1</v>
       </c>
       <c r="N14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P14" t="n">
         <v>1</v>
       </c>
       <c r="Q14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S14" t="n">
         <v>1</v>
       </c>
       <c r="T14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X14" t="n">
-        <v>2</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="Y14" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>0.0001346017122339247</v>
-      </c>
-      <c r="AA14" t="b">
+        <v>0.0003131262649203714</v>
+      </c>
+      <c r="Z14" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1734,25 +1692,25 @@
         <v>2</v>
       </c>
       <c r="N15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="P15" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S15" t="n">
         <v>1</v>
       </c>
       <c r="T15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
@@ -1761,18 +1719,15 @@
         <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X15" t="n">
-        <v>2</v>
+        <v>0.4736842105263158</v>
       </c>
       <c r="Y15" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="Z15" t="n">
-        <v>0.02099150467016482</v>
-      </c>
-      <c r="AA15" t="b">
+        <v>0.03487999137949652</v>
+      </c>
+      <c r="Z15" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1823,45 +1778,42 @@
         <v>2</v>
       </c>
       <c r="N16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="V16" t="n">
         <v>-1</v>
       </c>
       <c r="W16" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X16" t="n">
-        <v>1</v>
+        <v>0.4210526315789473</v>
       </c>
       <c r="Y16" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="Z16" t="n">
-        <v>0.1255703007868326</v>
-      </c>
-      <c r="AA16" t="b">
+        <v>0.2023441180626779</v>
+      </c>
+      <c r="Z16" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1918,10 +1870,10 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -1930,27 +1882,24 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X17" t="n">
-        <v>1</v>
+        <v>0.3157894736842105</v>
       </c>
       <c r="Y17" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="Z17" t="n">
-        <v>0.08281384258450995</v>
-      </c>
-      <c r="AA17" t="b">
+        <v>0.0827608408565824</v>
+      </c>
+      <c r="Z17" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2004,13 +1953,13 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -2031,15 +1980,12 @@
         <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>0.2631578947368421</v>
       </c>
       <c r="Y18" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="Z18" t="n">
-        <v>0.0961496884580865</v>
-      </c>
-      <c r="AA18" t="b">
+        <v>0.09615651801480735</v>
+      </c>
+      <c r="Z18" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2090,7 +2036,7 @@
         <v>2</v>
       </c>
       <c r="N19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
@@ -2117,18 +2063,15 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X19" t="n">
-        <v>-1</v>
+        <v>0.2105263157894737</v>
       </c>
       <c r="Y19" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="Z19" t="n">
-        <v>0.1713165073470198</v>
-      </c>
-      <c r="AA19" t="b">
+        <v>0.2590124501260013</v>
+      </c>
+      <c r="Z19" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2182,22 +2125,22 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S20" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="T20" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -2209,42 +2152,39 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="Y20" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="Z20" t="n">
-        <v>0.8336370941917258</v>
-      </c>
-      <c r="AA20" t="b">
+        <v>0.8339785822563535</v>
+      </c>
+      <c r="Z20" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>titkár</t>
+          <t>diák</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>secretary</t>
+          <t>student</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>秘书</t>
+          <t>學生</t>
         </is>
       </c>
       <c r="E21" t="n">
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -2253,28 +2193,28 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -2286,7 +2226,7 @@
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
@@ -2295,45 +2235,40 @@
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y21" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA21" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y21" t="inlineStr"/>
+      <c r="Z21" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>diák</t>
+          <t>titkár</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>student</t>
+          <t>secretary</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>學生</t>
+          <t>秘书</t>
         </is>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2342,16 +2277,16 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M22" t="n">
         <v>0</v>
@@ -2360,7 +2295,7 @@
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
@@ -2372,7 +2307,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -2381,19 +2316,18 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>-0.1052631578947368</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z22" t="inlineStr"/>
-      <c r="AA22" t="b">
+        <v>0.6499411188645231</v>
+      </c>
+      <c r="Z22" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2444,16 +2378,16 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Q23" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -2468,22 +2402,19 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="W23" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>-0.2631578947368421</v>
       </c>
       <c r="Y23" t="n">
-        <v>-0.2</v>
-      </c>
-      <c r="Z23" t="n">
-        <v>0.1036031591066269</v>
-      </c>
-      <c r="AA23" t="b">
-        <v>0</v>
+        <v>0.02071954304481246</v>
+      </c>
+      <c r="Z23" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="24">
@@ -2536,42 +2467,39 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="P24" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="Q24" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="T24" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="W24" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="X24" t="n">
-        <v>-2</v>
+        <v>-0.4210526315789473</v>
       </c>
       <c r="Y24" t="n">
-        <v>-0.4</v>
-      </c>
-      <c r="Z24" t="n">
-        <v>0.04208628671050171</v>
-      </c>
-      <c r="AA24" t="b">
+        <v>0.04186110551426154</v>
+      </c>
+      <c r="Z24" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2637,10 +2565,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="T25" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -2649,18 +2577,15 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X25" t="n">
-        <v>-1</v>
+        <v>-0.4210526315789473</v>
       </c>
       <c r="Y25" t="n">
-        <v>-0.4</v>
-      </c>
-      <c r="Z25" t="n">
-        <v>0.007523484059759463</v>
-      </c>
-      <c r="AA25" t="b">
+        <v>0.007298826279254444</v>
+      </c>
+      <c r="Z25" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2714,22 +2639,22 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="P26" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="S26" t="n">
         <v>-1</v>
       </c>
       <c r="T26" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -2738,18 +2663,15 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X26" t="n">
-        <v>-1</v>
+        <v>-0.5263157894736842</v>
       </c>
       <c r="Y26" t="n">
-        <v>-0.5</v>
-      </c>
-      <c r="Z26" t="n">
-        <v>0.001576396914624515</v>
-      </c>
-      <c r="AA26" t="b">
+        <v>0.001465943582128683</v>
+      </c>
+      <c r="Z26" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2803,42 +2725,39 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="P27" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="S27" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="U27" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="W27" t="n">
         <v>-1</v>
       </c>
       <c r="X27" t="n">
-        <v>-1</v>
+        <v>-0.631578947368421</v>
       </c>
       <c r="Y27" t="n">
-        <v>-0.6</v>
-      </c>
-      <c r="Z27" t="n">
-        <v>0.0008731939249668237</v>
-      </c>
-      <c r="AA27" t="b">
+        <v>0.0007944876741378328</v>
+      </c>
+      <c r="Z27" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2889,45 +2808,42 @@
         <v>-2</v>
       </c>
       <c r="N28" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Q28" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="S28" t="n">
         <v>-1</v>
       </c>
       <c r="T28" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="W28" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="X28" t="n">
-        <v>-2</v>
+        <v>-0.6842105263157895</v>
       </c>
       <c r="Y28" t="n">
-        <v>-0.7</v>
-      </c>
-      <c r="Z28" t="n">
-        <v>0.0004112938713638754</v>
-      </c>
-      <c r="AA28" t="b">
+        <v>0.0008772646601370131</v>
+      </c>
+      <c r="Z28" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2981,69 +2897,66 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="P29" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="S29" t="n">
         <v>-1</v>
       </c>
       <c r="T29" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="U29" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="W29" t="n">
         <v>-1</v>
       </c>
       <c r="X29" t="n">
-        <v>-1</v>
+        <v>-0.7894736842105263</v>
       </c>
       <c r="Y29" t="n">
-        <v>-0.75</v>
-      </c>
-      <c r="Z29" t="n">
-        <v>0.0001623118886853</v>
-      </c>
-      <c r="AA29" t="b">
+        <v>0.0001359325770763578</v>
+      </c>
+      <c r="Z29" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>3</v>
+        <v>37</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>kórboncnok</t>
+          <t>kertész</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>pathologist</t>
+          <t>gardener</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>法医</t>
+          <t>園丁</t>
         </is>
       </c>
       <c r="E30" t="n">
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -3052,10 +2965,10 @@
         <v>-1</v>
       </c>
       <c r="I30" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="J30" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="K30" t="n">
         <v>-1</v>
@@ -3064,25 +2977,25 @@
         <v>-2</v>
       </c>
       <c r="M30" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="P30" t="n">
         <v>-1</v>
       </c>
       <c r="Q30" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="S30" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
@@ -3091,60 +3004,57 @@
         <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X30" t="n">
-        <v>-2</v>
+        <v>-0.8421052631578947</v>
       </c>
       <c r="Y30" t="n">
-        <v>-0.8</v>
-      </c>
-      <c r="Z30" t="n">
-        <v>0.0003931739318516951</v>
-      </c>
-      <c r="AA30" t="b">
+        <v>0.0003453469938522981</v>
+      </c>
+      <c r="Z30" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>professzor</t>
+          <t>kórboncnok</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>professor</t>
+          <t>pathologist</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>教授</t>
+          <t>法医</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K31" t="n">
         <v>-1</v>
@@ -3153,28 +3063,28 @@
         <v>-2</v>
       </c>
       <c r="M31" t="n">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="N31" t="n">
         <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="P31" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="S31" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -3183,57 +3093,54 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="X31" t="n">
-        <v>-1</v>
+        <v>-0.8421052631578947</v>
       </c>
       <c r="Y31" t="n">
-        <v>-0.85</v>
-      </c>
-      <c r="Z31" t="n">
-        <v>0.0006485609919354625</v>
-      </c>
-      <c r="AA31" t="b">
+        <v>0.0003453469938522981</v>
+      </c>
+      <c r="Z31" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>kertész</t>
+          <t>professzor</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>gardener</t>
+          <t>professor</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>園丁</t>
+          <t>教授</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="I32" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>-1</v>
@@ -3242,28 +3149,28 @@
         <v>-2</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="N32" t="n">
         <v>-2</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="P32" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="S32" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="T32" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -3275,15 +3182,12 @@
         <v>-1</v>
       </c>
       <c r="X32" t="n">
-        <v>-1</v>
+        <v>-0.8947368421052632</v>
       </c>
       <c r="Y32" t="n">
-        <v>-0.9</v>
-      </c>
-      <c r="Z32" t="n">
-        <v>0.000148122151615693</v>
-      </c>
-      <c r="AA32" t="b">
+        <v>0.0005828713191751425</v>
+      </c>
+      <c r="Z32" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3337,42 +3241,39 @@
         <v>-1</v>
       </c>
       <c r="O33" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="P33" t="n">
         <v>-2</v>
       </c>
       <c r="Q33" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="S33" t="n">
         <v>-1</v>
       </c>
       <c r="T33" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="U33" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="W33" t="n">
         <v>-1</v>
       </c>
       <c r="X33" t="n">
-        <v>-1</v>
+        <v>-1.052631578947368</v>
       </c>
       <c r="Y33" t="n">
-        <v>-1.05</v>
-      </c>
-      <c r="Z33" t="n">
-        <v>1.5745411778626e-06</v>
-      </c>
-      <c r="AA33" t="b">
+        <v>4.050638600906517e-06</v>
+      </c>
+      <c r="Z33" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3423,45 +3324,42 @@
         <v>-2</v>
       </c>
       <c r="N34" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="P34" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="S34" t="n">
         <v>-1</v>
       </c>
       <c r="T34" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="U34" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="W34" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="X34" t="n">
-        <v>-2</v>
+        <v>-1.052631578947368</v>
       </c>
       <c r="Y34" t="n">
-        <v>-1.1</v>
-      </c>
-      <c r="Z34" t="n">
-        <v>1.460822954634177e-05</v>
-      </c>
-      <c r="AA34" t="b">
+        <v>3.856090189975178e-05</v>
+      </c>
+      <c r="Z34" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3512,28 +3410,28 @@
         <v>-2</v>
       </c>
       <c r="N35" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="P35" t="n">
         <v>-2</v>
       </c>
       <c r="Q35" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="S35" t="n">
         <v>-2</v>
       </c>
       <c r="T35" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="V35" t="n">
         <v>-1</v>
@@ -3542,15 +3440,12 @@
         <v>-1</v>
       </c>
       <c r="X35" t="n">
-        <v>-1</v>
+        <v>-1.105263157894737</v>
       </c>
       <c r="Y35" t="n">
-        <v>-1.1</v>
-      </c>
-      <c r="Z35" t="n">
-        <v>1.460822954634177e-05</v>
-      </c>
-      <c r="AA35" t="b">
+        <v>3.158722877662896e-05</v>
+      </c>
+      <c r="Z35" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3601,19 +3496,19 @@
         <v>-2</v>
       </c>
       <c r="N36" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="O36" t="n">
         <v>-1</v>
       </c>
       <c r="P36" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="S36" t="n">
         <v>-2</v>
@@ -3622,24 +3517,21 @@
         <v>-2</v>
       </c>
       <c r="U36" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="W36" t="n">
         <v>-2</v>
       </c>
       <c r="X36" t="n">
-        <v>-2</v>
+        <v>-1.157894736842105</v>
       </c>
       <c r="Y36" t="n">
-        <v>-1.2</v>
-      </c>
-      <c r="Z36" t="n">
-        <v>1.170724512489742e-06</v>
-      </c>
-      <c r="AA36" t="b">
+        <v>3.377181325693318e-06</v>
+      </c>
+      <c r="Z36" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3693,42 +3585,39 @@
         <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="P37" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="Q37" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="S37" t="n">
         <v>-1</v>
       </c>
       <c r="T37" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="U37" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="W37" t="n">
         <v>-1</v>
       </c>
       <c r="X37" t="n">
-        <v>-1</v>
+        <v>-1.263157894736842</v>
       </c>
       <c r="Y37" t="n">
-        <v>-1.2</v>
-      </c>
-      <c r="Z37" t="n">
-        <v>8.979235472490839e-06</v>
-      </c>
-      <c r="AA37" t="b">
+        <v>5.952802806995078e-06</v>
+      </c>
+      <c r="Z37" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3779,84 +3668,81 @@
         <v>-2</v>
       </c>
       <c r="N38" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="P38" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="Q38" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="S38" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="T38" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="W38" t="n">
         <v>-2</v>
       </c>
       <c r="X38" t="n">
-        <v>-2</v>
+        <v>-1.315789473684211</v>
       </c>
       <c r="Y38" t="n">
-        <v>-1.3</v>
-      </c>
-      <c r="Z38" t="n">
-        <v>6.930991031370908e-07</v>
-      </c>
-      <c r="AA38" t="b">
+        <v>1.572128121830609e-06</v>
+      </c>
+      <c r="Z38" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>programozó</t>
+          <t>munkás</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>programmer</t>
+          <t>worker</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>程序员</t>
+          <t>工人</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
         <v>-2</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="H39" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="I39" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="K39" t="n">
         <v>-1</v>
@@ -3871,81 +3757,78 @@
         <v>-1</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="P39" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="Q39" t="n">
         <v>-1</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="S39" t="n">
         <v>-1</v>
       </c>
       <c r="T39" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="V39" t="n">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="W39" t="n">
         <v>-2</v>
       </c>
       <c r="X39" t="n">
-        <v>-2</v>
+        <v>-1.315789473684211</v>
       </c>
       <c r="Y39" t="n">
-        <v>-1.35</v>
-      </c>
-      <c r="Z39" t="n">
-        <v>1.387425586494579e-07</v>
-      </c>
-      <c r="AA39" t="b">
+        <v>1.572128121830609e-06</v>
+      </c>
+      <c r="Z39" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>munkás</t>
+          <t>programozó</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>worker</t>
+          <t>programmer</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>工人</t>
+          <t>程序员</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F40" t="n">
         <v>-2</v>
       </c>
       <c r="G40" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="J40" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="K40" t="n">
         <v>-1</v>
@@ -3957,45 +3840,42 @@
         <v>-2</v>
       </c>
       <c r="N40" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="P40" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="Q40" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>-1</v>
       </c>
       <c r="S40" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="T40" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="V40" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="W40" t="n">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="X40" t="n">
-        <v>-2</v>
+        <v>-1.368421052631579</v>
       </c>
       <c r="Y40" t="n">
-        <v>-1.35</v>
-      </c>
-      <c r="Z40" t="n">
-        <v>4.948553746546387e-07</v>
-      </c>
-      <c r="AA40" t="b">
+        <v>3.267962775557722e-07</v>
+      </c>
+      <c r="Z40" t="b">
         <v>1</v>
       </c>
     </row>
@@ -4046,45 +3926,42 @@
         <v>-2</v>
       </c>
       <c r="N41" t="n">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="O41" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="P41" t="n">
         <v>-2</v>
       </c>
       <c r="Q41" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="S41" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="T41" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="V41" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="W41" t="n">
         <v>-2</v>
       </c>
       <c r="X41" t="n">
-        <v>-2</v>
+        <v>-1.421052631578947</v>
       </c>
       <c r="Y41" t="n">
-        <v>-1.5</v>
-      </c>
-      <c r="Z41" t="n">
-        <v>3.844626159531074e-08</v>
-      </c>
-      <c r="AA41" t="b">
+        <v>4.825036339038164e-08</v>
+      </c>
+      <c r="Z41" t="b">
         <v>1</v>
       </c>
     </row>
@@ -4144,10 +4021,10 @@
         <v>-2</v>
       </c>
       <c r="Q42" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="S42" t="n">
         <v>-2</v>
@@ -4156,24 +4033,21 @@
         <v>-2</v>
       </c>
       <c r="U42" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="V42" t="n">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="W42" t="n">
         <v>-3</v>
       </c>
       <c r="X42" t="n">
-        <v>-3</v>
+        <v>-1.684210526315789</v>
       </c>
       <c r="Y42" t="n">
-        <v>-1.7</v>
-      </c>
-      <c r="Z42" t="n">
-        <v>1.219418862173936e-08</v>
-      </c>
-      <c r="AA42" t="b">
+        <v>4.768546050383893e-08</v>
+      </c>
+      <c r="Z42" t="b">
         <v>1</v>
       </c>
     </row>
@@ -4224,45 +4098,42 @@
         <v>-2</v>
       </c>
       <c r="N43" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="O43" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="P43" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="Q43" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="S43" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="T43" t="n">
         <v>-2</v>
       </c>
       <c r="U43" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="V43" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="W43" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="X43" t="n">
-        <v>-3</v>
+        <v>-1.789473684210526</v>
       </c>
       <c r="Y43" t="n">
-        <v>-1.8</v>
-      </c>
-      <c r="Z43" t="n">
-        <v>4.7981076942453e-10</v>
-      </c>
-      <c r="AA43" t="b">
+        <v>2.217099142528144e-09</v>
+      </c>
+      <c r="Z43" t="b">
         <v>1</v>
       </c>
     </row>
@@ -4325,10 +4196,10 @@
         <v>-2</v>
       </c>
       <c r="R44" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="S44" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="T44" t="n">
         <v>-2</v>
@@ -4340,18 +4211,15 @@
         <v>-2</v>
       </c>
       <c r="W44" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="X44" t="n">
-        <v>-3</v>
+        <v>-1.947368421052632</v>
       </c>
       <c r="Y44" t="n">
-        <v>-1.95</v>
-      </c>
-      <c r="Z44" t="n">
-        <v>5.013814872135809e-15</v>
-      </c>
-      <c r="AA44" t="b">
+        <v>4.221384979545167e-14</v>
+      </c>
+      <c r="Z44" t="b">
         <v>1</v>
       </c>
     </row>
@@ -4402,45 +4270,42 @@
         <v>-2</v>
       </c>
       <c r="N45" t="n">
+        <v>-2</v>
+      </c>
+      <c r="O45" t="n">
+        <v>-2</v>
+      </c>
+      <c r="P45" t="n">
+        <v>-2</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>-2</v>
+      </c>
+      <c r="R45" t="n">
+        <v>-2</v>
+      </c>
+      <c r="S45" t="n">
         <v>-3</v>
-      </c>
-      <c r="O45" t="n">
-        <v>-2</v>
-      </c>
-      <c r="P45" t="n">
-        <v>-2</v>
-      </c>
-      <c r="Q45" t="n">
-        <v>-2</v>
-      </c>
-      <c r="R45" t="n">
-        <v>-2</v>
-      </c>
-      <c r="S45" t="n">
-        <v>-2</v>
       </c>
       <c r="T45" t="n">
         <v>-3</v>
       </c>
       <c r="U45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="V45" t="n">
         <v>-3</v>
-      </c>
-      <c r="V45" t="n">
-        <v>-1</v>
       </c>
       <c r="W45" t="n">
         <v>-3</v>
       </c>
       <c r="X45" t="n">
-        <v>-3</v>
+        <v>-2.210526315789474</v>
       </c>
       <c r="Y45" t="n">
-        <v>-2.25</v>
-      </c>
-      <c r="Z45" t="n">
-        <v>8.698348088886074e-11</v>
-      </c>
-      <c r="AA45" t="b">
+        <v>3.675224740678614e-10</v>
+      </c>
+      <c r="Z45" t="b">
         <v>1</v>
       </c>
     </row>

--- a/occupations/occupations_hu.xlsx
+++ b/occupations/occupations_hu.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z48"/>
+  <dimension ref="A1:AC48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -511,15 +511,30 @@
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
+          <t>chatgpt</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>copilot</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>gemini</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
           <t>hu_mean</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>hu_p_value</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>hu_significant</t>
         </is>
@@ -602,12 +617,21 @@
         <v>2</v>
       </c>
       <c r="X2" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA2" t="n">
         <v>2.2</v>
       </c>
-      <c r="Y2" t="n">
+      <c r="AB2" t="n">
         <v>3.420202778269108e-10</v>
       </c>
-      <c r="Z2" t="b">
+      <c r="AC2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -688,12 +712,21 @@
         <v>1</v>
       </c>
       <c r="X3" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA3" t="n">
         <v>2.15</v>
       </c>
-      <c r="Y3" t="n">
+      <c r="AB3" t="n">
         <v>1.1641778754087e-12</v>
       </c>
-      <c r="Z3" t="b">
+      <c r="AC3" t="b">
         <v>1</v>
       </c>
     </row>
@@ -774,12 +807,21 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA4" t="n">
         <v>1.7</v>
       </c>
-      <c r="Y4" t="n">
+      <c r="AB4" t="n">
         <v>5.506799399227166e-07</v>
       </c>
-      <c r="Z4" t="b">
+      <c r="AC4" t="b">
         <v>1</v>
       </c>
     </row>
@@ -860,12 +902,21 @@
         <v>1</v>
       </c>
       <c r="X5" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA5" t="n">
         <v>1.4</v>
       </c>
-      <c r="Y5" t="n">
+      <c r="AB5" t="n">
         <v>3.373972992204083e-07</v>
       </c>
-      <c r="Z5" t="b">
+      <c r="AC5" t="b">
         <v>1</v>
       </c>
     </row>
@@ -949,9 +1000,18 @@
         <v>1.2</v>
       </c>
       <c r="Y6" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AB6" t="n">
         <v>6.644218796145845e-05</v>
       </c>
-      <c r="Z6" t="b">
+      <c r="AC6" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1032,12 +1092,21 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="Y7" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB7" t="n">
         <v>0.0001055452501998152</v>
       </c>
-      <c r="Z7" t="b">
+      <c r="AC7" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1118,12 +1187,21 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="Y8" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB8" t="n">
         <v>1.997624965504301e-05</v>
       </c>
-      <c r="Z8" t="b">
+      <c r="AC8" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1204,12 +1282,21 @@
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="Y9" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB9" t="n">
         <v>0.0005365151789775392</v>
       </c>
-      <c r="Z9" t="b">
+      <c r="AC9" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1290,12 +1377,21 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA10" t="n">
         <v>0.95</v>
       </c>
-      <c r="Y10" t="n">
+      <c r="AB10" t="n">
         <v>5.742284310354169e-05</v>
       </c>
-      <c r="Z10" t="b">
+      <c r="AC10" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1376,12 +1472,21 @@
         <v>1</v>
       </c>
       <c r="X11" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA11" t="n">
         <v>0.95</v>
       </c>
-      <c r="Y11" t="n">
+      <c r="AB11" t="n">
         <v>5.742284310354169e-05</v>
       </c>
-      <c r="Z11" t="b">
+      <c r="AC11" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1462,12 +1567,21 @@
         <v>0</v>
       </c>
       <c r="X12" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA12" t="n">
         <v>0.95</v>
       </c>
-      <c r="Y12" t="n">
+      <c r="AB12" t="n">
         <v>5.742284310354146e-05</v>
       </c>
-      <c r="Z12" t="b">
+      <c r="AC12" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1548,12 +1662,21 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AA13" t="n">
         <v>0.7</v>
       </c>
-      <c r="Y13" t="n">
+      <c r="AB13" t="n">
         <v>0.0009481908754852913</v>
       </c>
-      <c r="Z13" t="b">
+      <c r="AC13" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1634,12 +1757,21 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA14" t="n">
         <v>0.65</v>
       </c>
-      <c r="Y14" t="n">
+      <c r="AB14" t="n">
         <v>0.0003581296656529706</v>
       </c>
-      <c r="Z14" t="b">
+      <c r="AC14" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1720,12 +1852,21 @@
         <v>0</v>
       </c>
       <c r="X15" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AA15" t="n">
         <v>0.45</v>
       </c>
-      <c r="Y15" t="n">
+      <c r="AB15" t="n">
         <v>0.03512747946372259</v>
       </c>
-      <c r="Z15" t="b">
+      <c r="AC15" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1806,12 +1947,21 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AA16" t="n">
         <v>0.4</v>
       </c>
-      <c r="Y16" t="n">
+      <c r="AB16" t="n">
         <v>0.2019331317529169</v>
       </c>
-      <c r="Z16" t="b">
+      <c r="AC16" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1892,12 +2042,21 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA17" t="n">
         <v>0.3</v>
       </c>
-      <c r="Y17" t="n">
+      <c r="AB17" t="n">
         <v>0.08281384258450995</v>
       </c>
-      <c r="Z17" t="b">
+      <c r="AC17" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1978,12 +2137,21 @@
         <v>0</v>
       </c>
       <c r="X18" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA18" t="n">
         <v>0.25</v>
       </c>
-      <c r="Y18" t="n">
+      <c r="AB18" t="n">
         <v>0.0961496884580865</v>
       </c>
-      <c r="Z18" t="b">
+      <c r="AC18" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2064,12 +2232,21 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA19" t="n">
         <v>0.2</v>
       </c>
-      <c r="Y19" t="n">
+      <c r="AB19" t="n">
         <v>0.2584516967614451</v>
       </c>
-      <c r="Z19" t="b">
+      <c r="AC19" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2150,12 +2327,21 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA20" t="n">
         <v>0.05</v>
       </c>
-      <c r="Y20" t="n">
+      <c r="AB20" t="n">
         <v>0.8336370941917258</v>
       </c>
-      <c r="Z20" t="b">
+      <c r="AC20" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2238,8 +2424,17 @@
       <c r="X21" t="n">
         <v>0</v>
       </c>
-      <c r="Y21" t="inlineStr"/>
-      <c r="Z21" t="b">
+      <c r="Y21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB21" t="inlineStr"/>
+      <c r="AC21" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2320,12 +2515,21 @@
         <v>-3</v>
       </c>
       <c r="X22" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA22" t="n">
         <v>-0.25</v>
       </c>
-      <c r="Y22" t="n">
+      <c r="AB22" t="n">
         <v>0.3489272386727659</v>
       </c>
-      <c r="Z22" t="b">
+      <c r="AC22" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2406,12 +2610,21 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
+        <v>-1.3</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>-1.5</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AA23" t="n">
         <v>-0.25</v>
       </c>
-      <c r="Y23" t="n">
+      <c r="AB23" t="n">
         <v>0.02099150467016482</v>
       </c>
-      <c r="Z23" t="b">
+      <c r="AC23" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2492,12 +2705,21 @@
         <v>0</v>
       </c>
       <c r="X24" t="n">
+        <v>-0.9</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>-2</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AA24" t="n">
         <v>-0.4</v>
       </c>
-      <c r="Y24" t="n">
+      <c r="AB24" t="n">
         <v>0.04208628671050171</v>
       </c>
-      <c r="Z24" t="b">
+      <c r="AC24" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2578,12 +2800,21 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
+        <v>-1.8</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>-1.2</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>-1.5</v>
+      </c>
+      <c r="AA25" t="n">
         <v>-0.4</v>
       </c>
-      <c r="Y25" t="n">
+      <c r="AB25" t="n">
         <v>0.007523484059759463</v>
       </c>
-      <c r="Z25" t="b">
+      <c r="AC25" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2667,9 +2898,18 @@
         <v>-0.5</v>
       </c>
       <c r="Y26" t="n">
+        <v>-0.8</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="AB26" t="n">
         <v>0.001576396914624515</v>
       </c>
-      <c r="Z26" t="b">
+      <c r="AC26" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2750,12 +2990,21 @@
         <v>0</v>
       </c>
       <c r="X27" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>-1.5</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>-1.5</v>
+      </c>
+      <c r="AA27" t="n">
         <v>-0.6</v>
       </c>
-      <c r="Y27" t="n">
+      <c r="AB27" t="n">
         <v>0.0008731939249668237</v>
       </c>
-      <c r="Z27" t="b">
+      <c r="AC27" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2836,12 +3085,21 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
+        <v>-1.2</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>-1.5</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>-1.5</v>
+      </c>
+      <c r="AA28" t="n">
         <v>-0.65</v>
       </c>
-      <c r="Y28" t="n">
+      <c r="AB28" t="n">
         <v>0.0009605546041496159</v>
       </c>
-      <c r="Z28" t="b">
+      <c r="AC28" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2922,12 +3180,21 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
+        <v>-1.8</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>-1.8</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>-1.5</v>
+      </c>
+      <c r="AA29" t="n">
         <v>-0.75</v>
       </c>
-      <c r="Y29" t="n">
+      <c r="AB29" t="n">
         <v>0.0001623118886853</v>
       </c>
-      <c r="Z29" t="b">
+      <c r="AC29" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3008,12 +3275,21 @@
         <v>0</v>
       </c>
       <c r="X30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>-1.8</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="AA30" t="n">
         <v>-0.8</v>
       </c>
-      <c r="Y30" t="n">
+      <c r="AB30" t="n">
         <v>0.0003931739318516951</v>
       </c>
-      <c r="Z30" t="b">
+      <c r="AC30" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3094,12 +3370,21 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
+        <v>-1.2</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>-1.5</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="AA31" t="n">
         <v>-0.8</v>
       </c>
-      <c r="Y31" t="n">
+      <c r="AB31" t="n">
         <v>0.0003931739318516951</v>
       </c>
-      <c r="Z31" t="b">
+      <c r="AC31" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3180,12 +3465,21 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
+        <v>-2</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>-1.8</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AA32" t="n">
         <v>-0.85</v>
       </c>
-      <c r="Y32" t="n">
+      <c r="AB32" t="n">
         <v>0.0006485609919354625</v>
       </c>
-      <c r="Z32" t="b">
+      <c r="AC32" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3266,12 +3560,21 @@
         <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>-1</v>
+        <v>-0.8</v>
       </c>
       <c r="Y33" t="n">
+        <v>-1.2</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AB33" t="n">
         <v>6.344666781924681e-06</v>
       </c>
-      <c r="Z33" t="b">
+      <c r="AC33" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3352,12 +3655,21 @@
         <v>-1</v>
       </c>
       <c r="X34" t="n">
+        <v>-2.5</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>-2</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>-2.5</v>
+      </c>
+      <c r="AA34" t="n">
         <v>-1.05</v>
       </c>
-      <c r="Y34" t="n">
+      <c r="AB34" t="n">
         <v>1.752415793828137e-05</v>
       </c>
-      <c r="Z34" t="b">
+      <c r="AC34" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3438,12 +3750,21 @@
         <v>-1</v>
       </c>
       <c r="X35" t="n">
+        <v>-1.5</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>-1.5</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="AA35" t="n">
         <v>-1.1</v>
       </c>
-      <c r="Y35" t="n">
+      <c r="AB35" t="n">
         <v>1.460822954634177e-05</v>
       </c>
-      <c r="Z35" t="b">
+      <c r="AC35" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3524,12 +3845,21 @@
         <v>-2</v>
       </c>
       <c r="X36" t="n">
+        <v>-2.5</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>-2</v>
+      </c>
+      <c r="Z36" t="n">
+        <v>-2</v>
+      </c>
+      <c r="AA36" t="n">
         <v>-1.2</v>
       </c>
-      <c r="Y36" t="n">
+      <c r="AB36" t="n">
         <v>1.170724512489742e-06</v>
       </c>
-      <c r="Z36" t="b">
+      <c r="AC36" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3610,12 +3940,21 @@
         <v>-1</v>
       </c>
       <c r="X37" t="n">
+        <v>-2.2</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>-0.8</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>-1.5</v>
+      </c>
+      <c r="AA37" t="n">
         <v>-1.25</v>
       </c>
-      <c r="Y37" t="n">
+      <c r="AB37" t="n">
         <v>2.72699420332404e-06</v>
       </c>
-      <c r="Z37" t="b">
+      <c r="AC37" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3696,12 +4035,21 @@
         <v>-1</v>
       </c>
       <c r="X38" t="n">
+        <v>-2.7</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>-2.5</v>
+      </c>
+      <c r="Z38" t="n">
+        <v>-2</v>
+      </c>
+      <c r="AA38" t="n">
         <v>-1.3</v>
       </c>
-      <c r="Y38" t="n">
+      <c r="AB38" t="n">
         <v>6.930991031370908e-07</v>
       </c>
-      <c r="Z38" t="b">
+      <c r="AC38" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3782,12 +4130,21 @@
         <v>-1</v>
       </c>
       <c r="X39" t="n">
+        <v>-1.8</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>-2</v>
+      </c>
+      <c r="Z39" t="n">
+        <v>-2.5</v>
+      </c>
+      <c r="AA39" t="n">
         <v>-1.35</v>
       </c>
-      <c r="Y39" t="n">
+      <c r="AB39" t="n">
         <v>1.387425586494579e-07</v>
       </c>
-      <c r="Z39" t="b">
+      <c r="AC39" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3868,12 +4225,21 @@
         <v>-2</v>
       </c>
       <c r="X40" t="n">
+        <v>-2.5</v>
+      </c>
+      <c r="Y40" t="n">
+        <v>-2</v>
+      </c>
+      <c r="Z40" t="n">
+        <v>-2.5</v>
+      </c>
+      <c r="AA40" t="n">
         <v>-1.35</v>
       </c>
-      <c r="Y40" t="n">
+      <c r="AB40" t="n">
         <v>4.948553746546387e-07</v>
       </c>
-      <c r="Z40" t="b">
+      <c r="AC40" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3954,12 +4320,21 @@
         <v>-1</v>
       </c>
       <c r="X41" t="n">
+        <v>-2</v>
+      </c>
+      <c r="Y41" t="n">
+        <v>-2</v>
+      </c>
+      <c r="Z41" t="n">
+        <v>-2</v>
+      </c>
+      <c r="AA41" t="n">
         <v>-1.4</v>
       </c>
-      <c r="Y41" t="n">
+      <c r="AB41" t="n">
         <v>1.981922486153569e-08</v>
       </c>
-      <c r="Z41" t="b">
+      <c r="AC41" t="b">
         <v>1</v>
       </c>
     </row>
@@ -4040,12 +4415,21 @@
         <v>-1</v>
       </c>
       <c r="X42" t="n">
+        <v>-2.5</v>
+      </c>
+      <c r="Y42" t="n">
+        <v>-2.2</v>
+      </c>
+      <c r="Z42" t="n">
+        <v>-2.8</v>
+      </c>
+      <c r="AA42" t="n">
         <v>-1.65</v>
       </c>
-      <c r="Y42" t="n">
+      <c r="AB42" t="n">
         <v>2.435792599564415e-08</v>
       </c>
-      <c r="Z42" t="b">
+      <c r="AC42" t="b">
         <v>1</v>
       </c>
     </row>
@@ -4126,12 +4510,21 @@
         <v>-1</v>
       </c>
       <c r="X43" t="n">
+        <v>-2.8</v>
+      </c>
+      <c r="Y43" t="n">
+        <v>-2.5</v>
+      </c>
+      <c r="Z43" t="n">
+        <v>-2.5</v>
+      </c>
+      <c r="AA43" t="n">
         <v>-1.75</v>
       </c>
-      <c r="Y43" t="n">
+      <c r="AB43" t="n">
         <v>1.242451223576612e-09</v>
       </c>
-      <c r="Z43" t="b">
+      <c r="AC43" t="b">
         <v>1</v>
       </c>
     </row>
@@ -4212,12 +4605,21 @@
         <v>-1</v>
       </c>
       <c r="X44" t="n">
+        <v>-2.5</v>
+      </c>
+      <c r="Y44" t="n">
+        <v>-1.8</v>
+      </c>
+      <c r="Z44" t="n">
+        <v>-2.5</v>
+      </c>
+      <c r="AA44" t="n">
         <v>-1.9</v>
       </c>
-      <c r="Y44" t="n">
+      <c r="AB44" t="n">
         <v>8.07462417263228e-14</v>
       </c>
-      <c r="Z44" t="b">
+      <c r="AC44" t="b">
         <v>1</v>
       </c>
     </row>
@@ -4298,12 +4700,21 @@
         <v>-2</v>
       </c>
       <c r="X45" t="n">
+        <v>-2.9</v>
+      </c>
+      <c r="Y45" t="n">
+        <v>-2.5</v>
+      </c>
+      <c r="Z45" t="n">
+        <v>-2.8</v>
+      </c>
+      <c r="AA45" t="n">
         <v>-2.2</v>
       </c>
-      <c r="Y45" t="n">
+      <c r="AB45" t="n">
         <v>8.478271066912954e-11</v>
       </c>
-      <c r="Z45" t="b">
+      <c r="AC45" t="b">
         <v>1</v>
       </c>
     </row>
@@ -4418,6 +4829,9 @@
       <c r="X46" t="inlineStr"/>
       <c r="Y46" t="inlineStr"/>
       <c r="Z46" t="inlineStr"/>
+      <c r="AA46" t="inlineStr"/>
+      <c r="AB46" t="inlineStr"/>
+      <c r="AC46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -4530,6 +4944,9 @@
       <c r="X47" t="inlineStr"/>
       <c r="Y47" t="inlineStr"/>
       <c r="Z47" t="inlineStr"/>
+      <c r="AA47" t="inlineStr"/>
+      <c r="AB47" t="inlineStr"/>
+      <c r="AC47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -4602,6 +5019,9 @@
       <c r="X48" t="inlineStr"/>
       <c r="Y48" t="inlineStr"/>
       <c r="Z48" t="inlineStr"/>
+      <c r="AA48" t="inlineStr"/>
+      <c r="AB48" t="inlineStr"/>
+      <c r="AC48" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/occupations/occupations_hu.xlsx
+++ b/occupations/occupations_hu.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC48"/>
+  <dimension ref="A1:AD48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -526,15 +526,20 @@
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
+          <t>deepseek</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
           <t>hu_mean</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>hu_p_value</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>hu_significant</t>
         </is>
@@ -626,12 +631,15 @@
         <v>3</v>
       </c>
       <c r="AA2" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AB2" t="n">
         <v>2.2</v>
       </c>
-      <c r="AB2" t="n">
+      <c r="AC2" t="n">
         <v>3.420202778269108e-10</v>
       </c>
-      <c r="AC2" t="b">
+      <c r="AD2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -721,12 +729,15 @@
         <v>3</v>
       </c>
       <c r="AA3" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AB3" t="n">
         <v>2.15</v>
       </c>
-      <c r="AB3" t="n">
+      <c r="AC3" t="n">
         <v>1.1641778754087e-12</v>
       </c>
-      <c r="AC3" t="b">
+      <c r="AD3" t="b">
         <v>1</v>
       </c>
     </row>
@@ -816,12 +827,15 @@
         <v>2</v>
       </c>
       <c r="AA4" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AB4" t="n">
         <v>1.7</v>
       </c>
-      <c r="AB4" t="n">
+      <c r="AC4" t="n">
         <v>5.506799399227166e-07</v>
       </c>
-      <c r="AC4" t="b">
+      <c r="AD4" t="b">
         <v>1</v>
       </c>
     </row>
@@ -911,12 +925,15 @@
         <v>2</v>
       </c>
       <c r="AA5" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AB5" t="n">
         <v>1.4</v>
       </c>
-      <c r="AB5" t="n">
+      <c r="AC5" t="n">
         <v>3.373972992204083e-07</v>
       </c>
-      <c r="AC5" t="b">
+      <c r="AD5" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1006,12 +1023,15 @@
         <v>2</v>
       </c>
       <c r="AA6" t="n">
+        <v>-0.2</v>
+      </c>
+      <c r="AB6" t="n">
         <v>1.2</v>
       </c>
-      <c r="AB6" t="n">
+      <c r="AC6" t="n">
         <v>6.644218796145845e-05</v>
       </c>
-      <c r="AC6" t="b">
+      <c r="AD6" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1101,12 +1121,15 @@
         <v>1</v>
       </c>
       <c r="AA7" t="n">
-        <v>1</v>
+        <v>-0.3</v>
       </c>
       <c r="AB7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC7" t="n">
         <v>0.0001055452501998152</v>
       </c>
-      <c r="AC7" t="b">
+      <c r="AD7" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1196,12 +1219,15 @@
         <v>2</v>
       </c>
       <c r="AA8" t="n">
-        <v>1</v>
+        <v>1.9</v>
       </c>
       <c r="AB8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC8" t="n">
         <v>1.997624965504301e-05</v>
       </c>
-      <c r="AC8" t="b">
+      <c r="AD8" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1291,12 +1317,15 @@
         <v>2.5</v>
       </c>
       <c r="AA9" t="n">
-        <v>1</v>
+        <v>2.2</v>
       </c>
       <c r="AB9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC9" t="n">
         <v>0.0005365151789775392</v>
       </c>
-      <c r="AC9" t="b">
+      <c r="AD9" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1386,12 +1415,15 @@
         <v>2</v>
       </c>
       <c r="AA10" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AB10" t="n">
         <v>0.95</v>
       </c>
-      <c r="AB10" t="n">
+      <c r="AC10" t="n">
         <v>5.742284310354169e-05</v>
       </c>
-      <c r="AC10" t="b">
+      <c r="AD10" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1481,12 +1513,15 @@
         <v>1.5</v>
       </c>
       <c r="AA11" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AB11" t="n">
         <v>0.95</v>
       </c>
-      <c r="AB11" t="n">
+      <c r="AC11" t="n">
         <v>5.742284310354169e-05</v>
       </c>
-      <c r="AC11" t="b">
+      <c r="AD11" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1576,12 +1611,15 @@
         <v>2</v>
       </c>
       <c r="AA12" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AB12" t="n">
         <v>0.95</v>
       </c>
-      <c r="AB12" t="n">
+      <c r="AC12" t="n">
         <v>5.742284310354146e-05</v>
       </c>
-      <c r="AC12" t="b">
+      <c r="AD12" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1671,12 +1709,15 @@
         <v>2.5</v>
       </c>
       <c r="AA13" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AB13" t="n">
         <v>0.7</v>
       </c>
-      <c r="AB13" t="n">
+      <c r="AC13" t="n">
         <v>0.0009481908754852913</v>
       </c>
-      <c r="AC13" t="b">
+      <c r="AD13" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1766,12 +1807,15 @@
         <v>2</v>
       </c>
       <c r="AA14" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AB14" t="n">
         <v>0.65</v>
       </c>
-      <c r="AB14" t="n">
+      <c r="AC14" t="n">
         <v>0.0003581296656529706</v>
       </c>
-      <c r="AC14" t="b">
+      <c r="AD14" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1861,12 +1905,15 @@
         <v>0.5</v>
       </c>
       <c r="AA15" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AB15" t="n">
         <v>0.45</v>
       </c>
-      <c r="AB15" t="n">
+      <c r="AC15" t="n">
         <v>0.03512747946372259</v>
       </c>
-      <c r="AC15" t="b">
+      <c r="AD15" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1956,12 +2003,15 @@
         <v>2.5</v>
       </c>
       <c r="AA16" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="AB16" t="n">
         <v>0.4</v>
       </c>
-      <c r="AB16" t="n">
+      <c r="AC16" t="n">
         <v>0.2019331317529169</v>
       </c>
-      <c r="AC16" t="b">
+      <c r="AD16" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2051,12 +2101,15 @@
         <v>0</v>
       </c>
       <c r="AA17" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AB17" t="n">
         <v>0.3</v>
       </c>
-      <c r="AB17" t="n">
+      <c r="AC17" t="n">
         <v>0.08281384258450995</v>
       </c>
-      <c r="AC17" t="b">
+      <c r="AD17" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2146,12 +2199,15 @@
         <v>1.5</v>
       </c>
       <c r="AA18" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="AB18" t="n">
         <v>0.25</v>
       </c>
-      <c r="AB18" t="n">
+      <c r="AC18" t="n">
         <v>0.0961496884580865</v>
       </c>
-      <c r="AC18" t="b">
+      <c r="AD18" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2241,12 +2297,15 @@
         <v>1</v>
       </c>
       <c r="AA19" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="AB19" t="n">
         <v>0.2</v>
       </c>
-      <c r="AB19" t="n">
+      <c r="AC19" t="n">
         <v>0.2584516967614451</v>
       </c>
-      <c r="AC19" t="b">
+      <c r="AD19" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2336,12 +2395,15 @@
         <v>1</v>
       </c>
       <c r="AA20" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AB20" t="n">
         <v>0.05</v>
       </c>
-      <c r="AB20" t="n">
+      <c r="AC20" t="n">
         <v>0.8336370941917258</v>
       </c>
-      <c r="AC20" t="b">
+      <c r="AD20" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2433,8 +2495,11 @@
       <c r="AA21" t="n">
         <v>0</v>
       </c>
-      <c r="AB21" t="inlineStr"/>
-      <c r="AC21" t="b">
+      <c r="AB21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC21" t="inlineStr"/>
+      <c r="AD21" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2524,12 +2589,15 @@
         <v>1.5</v>
       </c>
       <c r="AA22" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="AB22" t="n">
         <v>-0.25</v>
       </c>
-      <c r="AB22" t="n">
+      <c r="AC22" t="n">
         <v>0.3489272386727659</v>
       </c>
-      <c r="AC22" t="b">
+      <c r="AD22" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2619,12 +2687,15 @@
         <v>-1</v>
       </c>
       <c r="AA23" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="AB23" t="n">
         <v>-0.25</v>
       </c>
-      <c r="AB23" t="n">
+      <c r="AC23" t="n">
         <v>0.02099150467016482</v>
       </c>
-      <c r="AC23" t="b">
+      <c r="AD23" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2714,12 +2785,15 @@
         <v>-1</v>
       </c>
       <c r="AA24" t="n">
+        <v>-1.5</v>
+      </c>
+      <c r="AB24" t="n">
         <v>-0.4</v>
       </c>
-      <c r="AB24" t="n">
+      <c r="AC24" t="n">
         <v>0.04208628671050171</v>
       </c>
-      <c r="AC24" t="b">
+      <c r="AD24" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2809,12 +2883,15 @@
         <v>-1.5</v>
       </c>
       <c r="AA25" t="n">
+        <v>-1.4</v>
+      </c>
+      <c r="AB25" t="n">
         <v>-0.4</v>
       </c>
-      <c r="AB25" t="n">
+      <c r="AC25" t="n">
         <v>0.007523484059759463</v>
       </c>
-      <c r="AC25" t="b">
+      <c r="AD25" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2904,12 +2981,15 @@
         <v>0</v>
       </c>
       <c r="AA26" t="n">
+        <v>-1.6</v>
+      </c>
+      <c r="AB26" t="n">
         <v>-0.5</v>
       </c>
-      <c r="AB26" t="n">
+      <c r="AC26" t="n">
         <v>0.001576396914624515</v>
       </c>
-      <c r="AC26" t="b">
+      <c r="AD26" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2999,12 +3079,15 @@
         <v>-1.5</v>
       </c>
       <c r="AA27" t="n">
+        <v>-1.2</v>
+      </c>
+      <c r="AB27" t="n">
         <v>-0.6</v>
       </c>
-      <c r="AB27" t="n">
+      <c r="AC27" t="n">
         <v>0.0008731939249668237</v>
       </c>
-      <c r="AC27" t="b">
+      <c r="AD27" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3094,12 +3177,15 @@
         <v>-1.5</v>
       </c>
       <c r="AA28" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AB28" t="n">
         <v>-0.65</v>
       </c>
-      <c r="AB28" t="n">
+      <c r="AC28" t="n">
         <v>0.0009605546041496159</v>
       </c>
-      <c r="AC28" t="b">
+      <c r="AD28" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3189,12 +3275,15 @@
         <v>-1.5</v>
       </c>
       <c r="AA29" t="n">
+        <v>-1.1</v>
+      </c>
+      <c r="AB29" t="n">
         <v>-0.75</v>
       </c>
-      <c r="AB29" t="n">
+      <c r="AC29" t="n">
         <v>0.0001623118886853</v>
       </c>
-      <c r="AC29" t="b">
+      <c r="AD29" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3284,12 +3373,15 @@
         <v>-0.5</v>
       </c>
       <c r="AA30" t="n">
+        <v>-0.7</v>
+      </c>
+      <c r="AB30" t="n">
         <v>-0.8</v>
       </c>
-      <c r="AB30" t="n">
+      <c r="AC30" t="n">
         <v>0.0003931739318516951</v>
       </c>
-      <c r="AC30" t="b">
+      <c r="AD30" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3379,12 +3471,15 @@
         <v>-0.5</v>
       </c>
       <c r="AA31" t="n">
+        <v>-1.8</v>
+      </c>
+      <c r="AB31" t="n">
         <v>-0.8</v>
       </c>
-      <c r="AB31" t="n">
+      <c r="AC31" t="n">
         <v>0.0003931739318516951</v>
       </c>
-      <c r="AC31" t="b">
+      <c r="AD31" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3474,12 +3569,15 @@
         <v>-1</v>
       </c>
       <c r="AA32" t="n">
+        <v>-0.8</v>
+      </c>
+      <c r="AB32" t="n">
         <v>-0.85</v>
       </c>
-      <c r="AB32" t="n">
+      <c r="AC32" t="n">
         <v>0.0006485609919354625</v>
       </c>
-      <c r="AC32" t="b">
+      <c r="AD32" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3569,12 +3667,15 @@
         <v>-1</v>
       </c>
       <c r="AA33" t="n">
-        <v>-1</v>
+        <v>-1.75</v>
       </c>
       <c r="AB33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AC33" t="n">
         <v>6.344666781924681e-06</v>
       </c>
-      <c r="AC33" t="b">
+      <c r="AD33" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3664,12 +3765,15 @@
         <v>-2.5</v>
       </c>
       <c r="AA34" t="n">
+        <v>-2.4</v>
+      </c>
+      <c r="AB34" t="n">
         <v>-1.05</v>
       </c>
-      <c r="AB34" t="n">
+      <c r="AC34" t="n">
         <v>1.752415793828137e-05</v>
       </c>
-      <c r="AC34" t="b">
+      <c r="AD34" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3759,12 +3863,15 @@
         <v>-0.5</v>
       </c>
       <c r="AA35" t="n">
+        <v>-2.85</v>
+      </c>
+      <c r="AB35" t="n">
         <v>-1.1</v>
       </c>
-      <c r="AB35" t="n">
+      <c r="AC35" t="n">
         <v>1.460822954634177e-05</v>
       </c>
-      <c r="AC35" t="b">
+      <c r="AD35" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3854,12 +3961,15 @@
         <v>-2</v>
       </c>
       <c r="AA36" t="n">
+        <v>-2.1</v>
+      </c>
+      <c r="AB36" t="n">
         <v>-1.2</v>
       </c>
-      <c r="AB36" t="n">
+      <c r="AC36" t="n">
         <v>1.170724512489742e-06</v>
       </c>
-      <c r="AC36" t="b">
+      <c r="AD36" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3949,12 +4059,15 @@
         <v>-1.5</v>
       </c>
       <c r="AA37" t="n">
+        <v>-2.2</v>
+      </c>
+      <c r="AB37" t="n">
         <v>-1.25</v>
       </c>
-      <c r="AB37" t="n">
+      <c r="AC37" t="n">
         <v>2.72699420332404e-06</v>
       </c>
-      <c r="AC37" t="b">
+      <c r="AD37" t="b">
         <v>1</v>
       </c>
     </row>
@@ -4044,12 +4157,15 @@
         <v>-2</v>
       </c>
       <c r="AA38" t="n">
+        <v>-2.6</v>
+      </c>
+      <c r="AB38" t="n">
         <v>-1.3</v>
       </c>
-      <c r="AB38" t="n">
+      <c r="AC38" t="n">
         <v>6.930991031370908e-07</v>
       </c>
-      <c r="AC38" t="b">
+      <c r="AD38" t="b">
         <v>1</v>
       </c>
     </row>
@@ -4139,12 +4255,15 @@
         <v>-2.5</v>
       </c>
       <c r="AA39" t="n">
+        <v>-2.3</v>
+      </c>
+      <c r="AB39" t="n">
         <v>-1.35</v>
       </c>
-      <c r="AB39" t="n">
+      <c r="AC39" t="n">
         <v>1.387425586494579e-07</v>
       </c>
-      <c r="AC39" t="b">
+      <c r="AD39" t="b">
         <v>1</v>
       </c>
     </row>
@@ -4234,12 +4353,15 @@
         <v>-2.5</v>
       </c>
       <c r="AA40" t="n">
+        <v>-2.7</v>
+      </c>
+      <c r="AB40" t="n">
         <v>-1.35</v>
       </c>
-      <c r="AB40" t="n">
+      <c r="AC40" t="n">
         <v>4.948553746546387e-07</v>
       </c>
-      <c r="AC40" t="b">
+      <c r="AD40" t="b">
         <v>1</v>
       </c>
     </row>
@@ -4329,12 +4451,15 @@
         <v>-2</v>
       </c>
       <c r="AA41" t="n">
+        <v>-2.1</v>
+      </c>
+      <c r="AB41" t="n">
         <v>-1.4</v>
       </c>
-      <c r="AB41" t="n">
+      <c r="AC41" t="n">
         <v>1.981922486153569e-08</v>
       </c>
-      <c r="AC41" t="b">
+      <c r="AD41" t="b">
         <v>1</v>
       </c>
     </row>
@@ -4424,12 +4549,15 @@
         <v>-2.8</v>
       </c>
       <c r="AA42" t="n">
+        <v>-2.4</v>
+      </c>
+      <c r="AB42" t="n">
         <v>-1.65</v>
       </c>
-      <c r="AB42" t="n">
+      <c r="AC42" t="n">
         <v>2.435792599564415e-08</v>
       </c>
-      <c r="AC42" t="b">
+      <c r="AD42" t="b">
         <v>1</v>
       </c>
     </row>
@@ -4519,12 +4647,15 @@
         <v>-2.5</v>
       </c>
       <c r="AA43" t="n">
+        <v>-2.95</v>
+      </c>
+      <c r="AB43" t="n">
         <v>-1.75</v>
       </c>
-      <c r="AB43" t="n">
+      <c r="AC43" t="n">
         <v>1.242451223576612e-09</v>
       </c>
-      <c r="AC43" t="b">
+      <c r="AD43" t="b">
         <v>1</v>
       </c>
     </row>
@@ -4614,12 +4745,15 @@
         <v>-2.5</v>
       </c>
       <c r="AA44" t="n">
+        <v>-2.85</v>
+      </c>
+      <c r="AB44" t="n">
         <v>-1.9</v>
       </c>
-      <c r="AB44" t="n">
+      <c r="AC44" t="n">
         <v>8.07462417263228e-14</v>
       </c>
-      <c r="AC44" t="b">
+      <c r="AD44" t="b">
         <v>1</v>
       </c>
     </row>
@@ -4709,12 +4843,15 @@
         <v>-2.8</v>
       </c>
       <c r="AA45" t="n">
+        <v>-2.98</v>
+      </c>
+      <c r="AB45" t="n">
         <v>-2.2</v>
       </c>
-      <c r="AB45" t="n">
+      <c r="AC45" t="n">
         <v>8.478271066912954e-11</v>
       </c>
-      <c r="AC45" t="b">
+      <c r="AD45" t="b">
         <v>1</v>
       </c>
     </row>
@@ -4832,6 +4969,7 @@
       <c r="AA46" t="inlineStr"/>
       <c r="AB46" t="inlineStr"/>
       <c r="AC46" t="inlineStr"/>
+      <c r="AD46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -4947,6 +5085,7 @@
       <c r="AA47" t="inlineStr"/>
       <c r="AB47" t="inlineStr"/>
       <c r="AC47" t="inlineStr"/>
+      <c r="AD47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -5022,6 +5161,7 @@
       <c r="AA48" t="inlineStr"/>
       <c r="AB48" t="inlineStr"/>
       <c r="AC48" t="inlineStr"/>
+      <c r="AD48" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
